--- a/codevalidator-api/docs/value_set_list_with_code_count_version.xlsx
+++ b/codevalidator-api/docs/value_set_list_with_code_count_version.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ai-vmdc1\RedirectedFolders\amore\Documents\SITE\2017_latest_value_sets_activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sneha Thalluri\Desktop\value sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="7248"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated_configured" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated_configured!$A$1:$G$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated_configured!$A$1:$H$100</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="252">
   <si>
     <t>Name</t>
   </si>
@@ -526,9 +526,6 @@
   </si>
   <si>
     <t>ActStatus</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.840.1.113883.1.11.159331</t>
   </si>
   <si>
     <t>http://www.hl7.org/documentcenter/public_temp_983DB2B0-1C23-BA17-0C785F32D4673871/standards/vocabulary/vocabulary_tables/infrastructure/vocabulary/vs_ActStatus.html</t>
@@ -772,12 +769,36 @@
   <si>
     <t>This value set was prepared manually using multiple sources</t>
   </si>
+  <si>
+    <t xml:space="preserve">New code count </t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.1.11.15933</t>
+  </si>
+  <si>
+    <t>Clinical Substance</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113762.1.4.1010.2</t>
+  </si>
+  <si>
+    <t>MedicationBrandName</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.3.88.12.80.16</t>
+  </si>
+  <si>
+    <t>SupportedFileFormats</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.11.20.7.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,6 +872,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -894,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -959,12 +987,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1340,26 +1403,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="92.7109375" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="37.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="92.6640625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,19 +1434,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1392,19 +1459,22 @@
       <c r="C2" s="8">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10">
         <v>20160712</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>79</v>
@@ -1412,17 +1482,20 @@
       <c r="C3" s="8">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="13">
         <v>20150424</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1432,40 +1505,46 @@
       <c r="C4" s="8">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="8">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="13">
         <v>20150424</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>166</v>
+      <c r="B5" s="25" t="s">
+        <v>245</v>
       </c>
       <c r="C5" s="8">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="15">
         <v>20130801</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1475,17 +1554,20 @@
       <c r="C6" s="8">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="8">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15">
         <v>20161130</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="11">
         <v>20161130</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1495,17 +1577,20 @@
       <c r="C7" s="8">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="D7" s="8">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="11">
         <v>20161010</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1515,17 +1600,20 @@
       <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1535,42 +1623,48 @@
       <c r="C9" s="8">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="11">
         <v>20150528</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="8">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="8">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
@@ -1578,17 +1672,20 @@
       <c r="C11" s="8">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="D11" s="8">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1598,17 +1695,20 @@
       <c r="C12" s="8">
         <v>31045</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="D12" s="26">
+        <v>38064</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="11">
         <v>20160623</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -1618,37 +1718,43 @@
       <c r="C13" s="8">
         <v>9</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="D13" s="26">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="11">
         <v>20160903</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="C14" s="8">
         <v>24074</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="D14" s="26">
+        <v>24422</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="15">
         <v>20170601</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1658,38 +1764,44 @@
       <c r="C15" s="8">
         <v>51</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="D15" s="26">
+        <v>193</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="11">
         <v>20150424</v>
       </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="8">
         <v>249</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="8">
+        <v>249</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1699,40 +1811,46 @@
       <c r="C17" s="8">
         <v>8</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="D17" s="8">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>197</v>
       </c>
       <c r="C18" s="18">
         <v>3</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="D18" s="18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="15">
         <v>20170915</v>
       </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>26</v>
@@ -1740,17 +1858,20 @@
       <c r="C19" s="8">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="D19" s="8">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="11">
         <v>20150819</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1760,17 +1881,20 @@
       <c r="C20" s="8">
         <v>148</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>218</v>
+      <c r="D20" s="8">
+        <v>172</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -1780,17 +1904,20 @@
       <c r="C21" s="8">
         <v>43</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="11">
-        <v>20160213</v>
+      <c r="D21" s="26">
+        <v>43</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F21" s="11">
         <v>20160213</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="11">
+        <v>20160213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -1800,17 +1927,20 @@
       <c r="C22" s="8">
         <v>16</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="D22" s="26">
+        <v>16</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
@@ -1820,17 +1950,20 @@
       <c r="C23" s="8">
         <v>7</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="D23" s="26">
+        <v>94</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1840,17 +1973,20 @@
       <c r="C24" s="8">
         <v>150</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="D24" s="24">
+        <v>150</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="11">
         <v>20160903</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
@@ -1860,17 +1996,20 @@
       <c r="C25" s="8">
         <v>177</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="15">
-        <v>20151210</v>
+      <c r="D25" s="24">
+        <v>174</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F25" s="15">
         <v>20151210</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="15">
+        <v>20151210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -1880,17 +2019,20 @@
       <c r="C26" s="8">
         <v>13</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="24">
+        <v>13</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="13">
         <v>20150310</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>20150310</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>41</v>
       </c>
@@ -1900,17 +2042,20 @@
       <c r="C27" s="8">
         <v>10</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="D27" s="24">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="11">
         <v>20150310</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
@@ -1920,17 +2065,20 @@
       <c r="C28" s="8">
         <v>2</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="D28" s="24">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="11">
         <v>20121025</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
@@ -1940,17 +2088,20 @@
       <c r="C29" s="8">
         <v>63</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="D29" s="24">
+        <v>83</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
@@ -1960,17 +2111,20 @@
       <c r="C30" s="8">
         <v>4</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="D30" s="8">
+        <v>4</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="11">
         <v>20170106</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
@@ -1980,37 +2134,43 @@
       <c r="C31" s="8">
         <v>2</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="D31" s="8">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="13">
         <v>20160712</v>
       </c>
-      <c r="F31" s="11">
+      <c r="G31" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="C32" s="8">
         <v>848</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="D32" s="8">
+        <v>853</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="11">
         <v>20170621</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
@@ -2020,17 +2180,20 @@
       <c r="C33" s="8">
         <v>189</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="D33" s="8">
+        <v>222</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
@@ -2040,17 +2203,20 @@
       <c r="C34" s="8">
         <v>10</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="D34" s="8">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="11">
         <v>20170304</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>55</v>
       </c>
@@ -2060,19 +2226,22 @@
       <c r="C35" s="8">
         <v>3</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F35" s="11">
+      <c r="D35" s="8">
+        <v>3</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" s="11">
         <v>20150310</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>57</v>
@@ -2080,17 +2249,20 @@
       <c r="C36" s="8">
         <v>28</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="D36" s="8">
+        <v>36</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>58</v>
       </c>
@@ -2100,17 +2272,20 @@
       <c r="C37" s="8">
         <v>13</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="D37" s="8">
+        <v>117</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>60</v>
       </c>
@@ -2120,37 +2295,43 @@
       <c r="C38" s="8">
         <v>6</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F38" s="11">
+      <c r="D38" s="8">
+        <v>6</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="11">
         <v>20150310</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="C39" s="8">
         <v>7982</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="8">
+        <v>7982</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>62</v>
       </c>
@@ -2160,17 +2341,20 @@
       <c r="C40" s="8">
         <v>6</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="11">
+      <c r="D40" s="8">
+        <v>6</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="11">
         <v>20150424</v>
       </c>
-      <c r="F40" s="15">
+      <c r="G40" s="15">
         <v>20150424</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>64</v>
       </c>
@@ -2180,17 +2364,20 @@
       <c r="C41" s="8">
         <v>4</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F41" s="11">
+      <c r="D41" s="8">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>66</v>
       </c>
@@ -2200,17 +2387,20 @@
       <c r="C42" s="8">
         <v>5295</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="11">
+      <c r="D42" s="8">
+        <v>5792</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="11">
         <v>20160903</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -2220,40 +2410,46 @@
       <c r="C43" s="8">
         <v>9</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F43" s="11">
+      <c r="D43" s="8">
+        <v>9</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>180</v>
       </c>
       <c r="C44" s="8">
         <v>64742</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="8">
+        <v>88451</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="11">
+        <v>20170601</v>
+      </c>
+      <c r="H44" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="F44" s="11">
-        <v>20170601</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>70</v>
       </c>
@@ -2263,19 +2459,22 @@
       <c r="C45" s="8">
         <v>2</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F45" s="11">
+      <c r="D45" s="8">
+        <v>2</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>72</v>
@@ -2283,17 +2482,20 @@
       <c r="C46" s="8">
         <v>164</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="11">
+      <c r="D46" s="8">
+        <v>164</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="11">
         <v>20161010</v>
       </c>
-      <c r="F46" s="15">
+      <c r="G46" s="15">
         <v>20161010</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>73</v>
       </c>
@@ -2303,17 +2505,20 @@
       <c r="C47" s="8">
         <v>123</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="11">
+      <c r="D47" s="8">
+        <v>124</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="11">
         <v>20161010</v>
       </c>
-      <c r="F47" s="15">
+      <c r="G47" s="15">
         <v>20161010</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>75</v>
       </c>
@@ -2323,17 +2528,20 @@
       <c r="C48" s="8">
         <v>10</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F48" s="11">
+      <c r="D48" s="8">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="11">
         <v>20161104</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>77</v>
       </c>
@@ -2343,17 +2551,20 @@
       <c r="C49" s="8">
         <v>2</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" s="11">
+      <c r="D49" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="11">
         <v>20150310</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>80</v>
       </c>
@@ -2363,17 +2574,20 @@
       <c r="C50" s="8">
         <v>8</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" s="11">
+      <c r="D50" s="8">
+        <v>12</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="11">
         <v>20161104</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>82</v>
       </c>
@@ -2383,17 +2597,20 @@
       <c r="C51" s="8">
         <v>16</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="13">
+      <c r="D51" s="8">
+        <v>28</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="13">
         <v>20160715</v>
       </c>
-      <c r="F51" s="11">
+      <c r="G51" s="11">
         <v>20160715</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>84</v>
       </c>
@@ -2403,17 +2620,20 @@
       <c r="C52" s="8">
         <v>48</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="11">
-        <v>20151210</v>
+      <c r="D52" s="8">
+        <v>56</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F52" s="11">
         <v>20151210</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="11">
+        <v>20151210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>86</v>
       </c>
@@ -2423,17 +2643,20 @@
       <c r="C53" s="8">
         <v>48</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="13">
+      <c r="D53" s="8">
+        <v>46</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="13">
         <v>20150417</v>
       </c>
-      <c r="F53" s="11">
+      <c r="G53" s="11">
         <v>20150417</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>88</v>
       </c>
@@ -2443,17 +2666,20 @@
       <c r="C54" s="8">
         <v>990</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="11">
-        <v>20151210</v>
+      <c r="D54" s="8">
+        <v>988</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F54" s="11">
         <v>20151210</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="11">
+        <v>20151210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>90</v>
       </c>
@@ -2463,17 +2689,20 @@
       <c r="C55" s="8">
         <v>2</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F55" s="15">
+      <c r="D55" s="8">
+        <v>2</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G55" s="15">
         <v>20161104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>92</v>
       </c>
@@ -2483,17 +2712,20 @@
       <c r="C56" s="8">
         <v>155</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="F56" s="11">
+      <c r="D56" s="8">
+        <v>162</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G56" s="11">
         <v>20161108</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>94</v>
       </c>
@@ -2503,17 +2735,20 @@
       <c r="C57" s="8">
         <v>116</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F57" s="11">
+      <c r="D57" s="8">
+        <v>116</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57" s="11">
         <v>20161112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>96</v>
       </c>
@@ -2523,17 +2758,20 @@
       <c r="C58" s="8">
         <v>53</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F58" s="11">
+      <c r="D58" s="8">
+        <v>53</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="11">
         <v>20161104</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>98</v>
       </c>
@@ -2543,19 +2781,22 @@
       <c r="C59" s="8">
         <v>6</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F59" s="11">
+      <c r="D59" s="8">
+        <v>6</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G59" s="11">
         <v>20161104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>100</v>
@@ -2563,19 +2804,22 @@
       <c r="C60" s="8">
         <v>5</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="13">
+      <c r="D60" s="8">
+        <v>6</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="13">
         <v>20150417</v>
       </c>
-      <c r="F60" s="11">
+      <c r="G60" s="11">
         <v>20150417</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>101</v>
@@ -2583,19 +2827,22 @@
       <c r="C61" s="8">
         <v>5</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="F61" s="11">
+      <c r="D61" s="8">
+        <v>5</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" s="11">
         <v>20150417</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>102</v>
@@ -2603,17 +2850,20 @@
       <c r="C62" s="8">
         <v>4</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="F62" s="11">
+      <c r="D62" s="8">
+        <v>4</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" s="11">
         <v>20150417</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>103</v>
       </c>
@@ -2623,37 +2873,43 @@
       <c r="C63" s="8">
         <v>10</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="F63" s="11">
+      <c r="D63" s="8">
+        <v>11</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G63" s="11">
         <v>20150417</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="C64" s="8">
         <v>41440</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="8">
+        <v>41440</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>105</v>
       </c>
@@ -2663,17 +2919,20 @@
       <c r="C65" s="8">
         <v>19</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F65" s="11">
+      <c r="D65" s="8">
+        <v>20</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>107</v>
       </c>
@@ -2683,17 +2942,20 @@
       <c r="C66" s="8">
         <v>5</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F66" s="11">
+      <c r="D66" s="8">
+        <v>6</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>109</v>
       </c>
@@ -2703,17 +2965,20 @@
       <c r="C67" s="8">
         <v>3</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F67" s="11">
+      <c r="D67" s="8">
+        <v>3</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G67" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>111</v>
       </c>
@@ -2723,17 +2988,20 @@
       <c r="C68" s="8">
         <v>115898</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F68" s="11">
+      <c r="D68" s="24">
+        <v>120271</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G68" s="11">
         <v>20170504</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>113</v>
       </c>
@@ -2743,19 +3011,22 @@
       <c r="C69" s="8">
         <v>6</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F69" s="11">
+      <c r="D69" s="8">
+        <v>3</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>115</v>
@@ -2763,17 +3034,20 @@
       <c r="C70" s="8">
         <v>3</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F70" s="11">
+      <c r="D70" s="8">
+        <v>3</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>116</v>
       </c>
@@ -2783,17 +3057,20 @@
       <c r="C71" s="8">
         <v>15</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="F71" s="11">
+      <c r="D71" s="8">
+        <v>8</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G71" s="11">
         <v>20150826</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>118</v>
       </c>
@@ -2803,17 +3080,20 @@
       <c r="C72" s="8">
         <v>4</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F72" s="11">
+      <c r="D72" s="8">
+        <v>4</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G72" s="11">
         <v>20150819</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>120</v>
       </c>
@@ -2823,17 +3103,20 @@
       <c r="C73" s="8">
         <v>4</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F73" s="11">
+      <c r="D73" s="8">
+        <v>4</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G73" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>122</v>
       </c>
@@ -2843,17 +3126,20 @@
       <c r="C74" s="8">
         <v>17</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F74" s="11">
+      <c r="D74" s="8">
+        <v>114</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G74" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>124</v>
       </c>
@@ -2863,17 +3149,20 @@
       <c r="C75" s="8">
         <v>25</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" s="11">
+      <c r="D75" s="8">
+        <v>106</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G75" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>126</v>
       </c>
@@ -2883,17 +3172,20 @@
       <c r="C76" s="8">
         <v>921</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F76" s="11">
+      <c r="D76" s="8">
+        <v>921</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>128</v>
       </c>
@@ -2903,17 +3195,20 @@
       <c r="C77" s="8">
         <v>5</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="13">
+      <c r="D77" s="8">
+        <v>5</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="13">
         <v>20151123</v>
       </c>
-      <c r="F77" s="11">
+      <c r="G77" s="11">
         <v>20160213</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>130</v>
       </c>
@@ -2923,17 +3218,20 @@
       <c r="C78" s="8">
         <v>932</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F78" s="11">
+      <c r="D78" s="8">
+        <v>987</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" s="11">
         <v>20161112</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>132</v>
       </c>
@@ -2943,17 +3241,20 @@
       <c r="C79" s="8">
         <v>67</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F79" s="11">
+      <c r="D79" s="8">
+        <v>81</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G79" s="11">
         <v>20161104</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>134</v>
       </c>
@@ -2963,17 +3264,20 @@
       <c r="C80" s="8">
         <v>2</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="F80" s="11">
+      <c r="D80" s="8">
+        <v>2</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G80" s="11">
         <v>20170426</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>136</v>
       </c>
@@ -2983,17 +3287,20 @@
       <c r="C81" s="8">
         <v>82</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F81" s="11">
+      <c r="D81" s="8">
+        <v>82</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G81" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>138</v>
       </c>
@@ -3003,17 +3310,20 @@
       <c r="C82" s="8">
         <v>191</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F82" s="11">
+      <c r="D82" s="8">
+        <v>196</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G82" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>140</v>
       </c>
@@ -3023,19 +3333,22 @@
       <c r="C83" s="8">
         <v>6</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F83" s="11">
+      <c r="D83" s="8">
+        <v>6</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G83" s="11">
         <v>20150407</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>142</v>
@@ -3043,19 +3356,22 @@
       <c r="C84" s="8">
         <v>8</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F84" s="11">
+      <c r="D84" s="8">
+        <v>32</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>143</v>
@@ -3063,80 +3379,92 @@
       <c r="C85" s="8">
         <v>9</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F85" s="11">
+      <c r="D85" s="8">
+        <v>15</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G85" s="11">
         <v>20150407</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="C86" s="8">
         <v>51</v>
       </c>
-      <c r="D86" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D86" s="8">
+        <v>51</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="C87" s="8">
         <v>4803</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F87" s="11">
+      <c r="D87" s="24">
+        <v>20131</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G87" s="11">
         <v>20170520</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="20" t="s">
         <v>189</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>190</v>
       </c>
       <c r="C88" s="8">
         <v>732086</v>
       </c>
-      <c r="D88" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G88" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D88" s="24">
+        <v>57534</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>144</v>
       </c>
@@ -3146,17 +3474,20 @@
       <c r="C89" s="8">
         <v>10</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F89" s="11">
+      <c r="D89" s="8">
+        <v>37</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G89" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>146</v>
       </c>
@@ -3166,17 +3497,20 @@
       <c r="C90" s="8">
         <v>5</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F90" s="11">
+      <c r="D90" s="8">
+        <v>5</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G90" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>148</v>
       </c>
@@ -3186,17 +3520,20 @@
       <c r="C91" s="8">
         <v>4</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F91" s="11">
+      <c r="D91" s="8">
+        <v>7</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>150</v>
       </c>
@@ -3206,17 +3543,20 @@
       <c r="C92" s="8">
         <v>100</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="11">
-        <v>20151210</v>
+      <c r="D92" s="8">
+        <v>63</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F92" s="11">
         <v>20151210</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="11">
+        <v>20151210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>152</v>
       </c>
@@ -3226,40 +3566,46 @@
       <c r="C93" s="8">
         <v>60</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="15">
-        <v>20161104</v>
+      <c r="D93" s="8">
+        <v>69</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F93" s="15">
         <v>20161104</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G93" s="15">
+        <v>20161104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="C94" s="8">
         <v>813</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D94" s="8">
+        <v>810</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>154</v>
       </c>
@@ -3269,19 +3615,22 @@
       <c r="C95" s="8">
         <v>293</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="F95" s="11">
+      <c r="D95" s="8">
+        <v>286</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G95" s="11">
         <v>20161129</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>156</v>
@@ -3289,17 +3638,20 @@
       <c r="C96" s="8">
         <v>11</v>
       </c>
-      <c r="D96" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F96" s="15">
+      <c r="D96" s="8">
+        <v>12</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" s="15">
         <v>20150424</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>157</v>
       </c>
@@ -3309,17 +3661,20 @@
       <c r="C97" s="8">
         <v>12</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F97" s="11">
+      <c r="D97" s="8">
+        <v>50</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G97" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>159</v>
       </c>
@@ -3329,17 +3684,20 @@
       <c r="C98" s="8">
         <v>3</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F98" s="11">
+      <c r="D98" s="8">
+        <v>5</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G98" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>161</v>
       </c>
@@ -3349,17 +3707,20 @@
       <c r="C99" s="8">
         <v>14</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F99" s="11">
+      <c r="D99" s="8">
+        <v>33</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G99" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>163</v>
       </c>
@@ -3369,61 +3730,136 @@
       <c r="C100" s="8">
         <v>3</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="F100" s="11">
+      <c r="D100" s="8">
+        <v>3</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="G100" s="11">
         <v>20170426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" s="29">
+        <v>108582</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G101" s="15">
+        <v>20180122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>248</v>
+      </c>
+      <c r="B102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" s="24">
+        <v>29830</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G102" s="31">
+        <v>20160623</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" t="s">
+        <v>251</v>
+      </c>
+      <c r="C103" s="8">
+        <v>9</v>
+      </c>
+      <c r="D103" s="8">
+        <v>9</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G103" s="32">
+        <v>20180112</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:G100">
     <sortCondition ref="A2:A100"/>
   </sortState>
-  <conditionalFormatting sqref="A101:A1048576 A1:A2 A4:A13 A74:A84 A16:A40 A63:A69 A71:A72 A86 A88:A89 A42:A60">
+  <conditionalFormatting sqref="A101:A102 A1:A2 A4:A13 A74:A84 A16:A40 A63:A69 A71:A72 A86 A88:A89 A42:A60 A104:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="A90">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
+  <conditionalFormatting sqref="A41">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
+  <conditionalFormatting sqref="A91">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
+  <conditionalFormatting sqref="A92">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="A94">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
+  <conditionalFormatting sqref="A95:A100">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A100">
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
+  <conditionalFormatting sqref="B103">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D64" r:id="rId6" display="https://vsac.nlm.nih.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D86" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D94" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D84" r:id="rId10" xr:uid="{40F209A7-96C7-44AD-A635-52AE9551ABFF}"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="E16" r:id="rId3"/>
+    <hyperlink ref="E32" r:id="rId4"/>
+    <hyperlink ref="E39" r:id="rId5"/>
+    <hyperlink ref="E64" r:id="rId6" display="https://vsac.nlm.nih.gov"/>
+    <hyperlink ref="E86" r:id="rId7"/>
+    <hyperlink ref="E94" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId9"/>
+    <hyperlink ref="E84" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>

--- a/codevalidator-api/docs/value_set_list_with_code_count_version.xlsx
+++ b/codevalidator-api/docs/value_set_list_with_code_count_version.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sneha Thalluri\Desktop\value sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sneha Thalluri\Desktop\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="254">
   <si>
     <t>Name</t>
   </si>
@@ -474,9 +474,6 @@
     <t>urn:oid:2.16.840.1.113883.11.20.9.37</t>
   </si>
   <si>
-    <t>Telecom Use (US Realm Header)</t>
-  </si>
-  <si>
     <t>urn:oid:2.16.840.1.113883.11.20.9.20</t>
   </si>
   <si>
@@ -517,9 +514,6 @@
   </si>
   <si>
     <t>urn:oid:2.16.840.1.113883.1.11.20.2.6</t>
-  </si>
-  <si>
-    <t>x_ServiceEventPerformer</t>
   </si>
   <si>
     <t>urn:oid:2.16.840.1.113883.1.11.19601</t>
@@ -598,9 +592,6 @@
     <t>http://www.census.gov/geo/reference/ansi_statetables.html</t>
   </si>
   <si>
-    <t>Substance-Reactant for Intolerance</t>
-  </si>
-  <si>
     <t>urn:oid:2.16.840.1.113762.1.4.1010.1</t>
   </si>
   <si>
@@ -659,9 +650,6 @@
 Substance Other Than Clinical Drug (2.16.840.1.113762.1.4.1010.9):(https://vsac.nlm.nih.gov/valuesets) </t>
   </si>
   <si>
-    <t>Substance Other Than Clinical Drug</t>
-  </si>
-  <si>
     <t>urn:oid:2.16.840.1.113762.1.4.1010.9</t>
   </si>
   <si>
@@ -792,6 +780,24 @@
   </si>
   <si>
     <t>urn:oid:2.16.840.1.113883.11.20.7.1</t>
+  </si>
+  <si>
+    <t>DIRDocumentTypeCodes</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.11.20.9.32</t>
+  </si>
+  <si>
+    <t>XServiceEventPerformer</t>
+  </si>
+  <si>
+    <t>TelecomUseUSRealmHeader</t>
+  </si>
+  <si>
+    <t>SubstanceReactantForIntolerance</t>
+  </si>
+  <si>
+    <t>SubstanceOtherThanClinical Drug</t>
   </si>
 </sst>
 </file>
@@ -922,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1011,6 +1017,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1404,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,19 +1446,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1474,7 +1486,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>79</v>
@@ -1520,10 +1532,10 @@
     </row>
     <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C5" s="8">
         <v>10</v>
@@ -1532,16 +1544,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" s="15">
         <v>20130801</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1584,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G7" s="11">
         <v>20161010</v>
@@ -1607,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G8" s="11">
         <v>20150424</v>
@@ -1630,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G9" s="11">
         <v>20150528</v>
@@ -1638,33 +1650,33 @@
     </row>
     <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="8">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8">
-        <v>6</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>169</v>
-      </c>
       <c r="F10" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
@@ -1679,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G11" s="11">
         <v>20150424</v>
@@ -1702,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G12" s="11">
         <v>20160623</v>
@@ -1725,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G13" s="11">
         <v>20160903</v>
@@ -1733,10 +1745,10 @@
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C14" s="8">
         <v>24074</v>
@@ -1748,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G14" s="15">
         <v>20170601</v>
@@ -1771,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G15" s="11">
         <v>20150424</v>
@@ -1780,10 +1792,10 @@
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C16" s="8">
         <v>249</v>
@@ -1792,13 +1804,13 @@
         <v>249</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1818,7 +1830,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G17" s="11">
         <v>20150424</v>
@@ -1826,10 +1838,10 @@
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C18" s="18">
         <v>3</v>
@@ -1841,7 +1853,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G18" s="15">
         <v>20170915</v>
@@ -1850,7 +1862,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>26</v>
@@ -1865,7 +1877,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G19" s="11">
         <v>20150819</v>
@@ -1888,10 +1900,10 @@
         <v>6</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1934,7 +1946,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G22" s="11">
         <v>20150424</v>
@@ -1957,7 +1969,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G23" s="11">
         <v>20150424</v>
@@ -1980,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G24" s="11">
         <v>20160903</v>
@@ -2049,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G27" s="11">
         <v>20150310</v>
@@ -2072,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G28" s="11">
         <v>20121025</v>
@@ -2095,7 +2107,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G29" s="11">
         <v>20150424</v>
@@ -2118,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G30" s="11">
         <v>20170106</v>
@@ -2149,10 +2161,10 @@
     </row>
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C32" s="8">
         <v>848</v>
@@ -2161,10 +2173,10 @@
         <v>853</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G32" s="11">
         <v>20170621</v>
@@ -2187,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G33" s="11">
         <v>20150424</v>
@@ -2210,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G34" s="11">
         <v>20170304</v>
@@ -2233,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G35" s="11">
         <v>20150310</v>
@@ -2241,7 +2253,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>57</v>
@@ -2256,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G36" s="11">
         <v>20150424</v>
@@ -2279,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G37" s="11">
         <v>20150424</v>
@@ -2302,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G38" s="11">
         <v>20150310</v>
@@ -2310,10 +2322,10 @@
     </row>
     <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C39" s="8">
         <v>7982</v>
@@ -2322,13 +2334,13 @@
         <v>7982</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2371,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G41" s="11">
         <v>20150424</v>
@@ -2394,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G42" s="11">
         <v>20160903</v>
@@ -2417,7 +2429,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G43" s="11">
         <v>20150424</v>
@@ -2425,10 +2437,10 @@
     </row>
     <row r="44" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C44" s="8">
         <v>64742</v>
@@ -2437,16 +2449,16 @@
         <v>88451</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G44" s="11">
         <v>20170601</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2466,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G45" s="11">
         <v>20150424</v>
@@ -2474,7 +2486,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>72</v>
@@ -2535,7 +2547,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G48" s="11">
         <v>20161104</v>
@@ -2558,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G49" s="11">
         <v>20150310</v>
@@ -2581,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G50" s="11">
         <v>20161104</v>
@@ -2696,7 +2708,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G55" s="15">
         <v>20161104</v>
@@ -2719,7 +2731,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G56" s="11">
         <v>20161108</v>
@@ -2742,7 +2754,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G57" s="11">
         <v>20161112</v>
@@ -2765,7 +2777,7 @@
         <v>6</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G58" s="11">
         <v>20161104</v>
@@ -2788,7 +2800,7 @@
         <v>6</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G59" s="11">
         <v>20161104</v>
@@ -2796,7 +2808,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>100</v>
@@ -2819,7 +2831,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>101</v>
@@ -2834,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G61" s="11">
         <v>20150417</v>
@@ -2842,7 +2854,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>102</v>
@@ -2857,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G62" s="11">
         <v>20150417</v>
@@ -2880,7 +2892,7 @@
         <v>6</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G63" s="11">
         <v>20150417</v>
@@ -2888,10 +2900,10 @@
     </row>
     <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C64" s="8">
         <v>41440</v>
@@ -2900,13 +2912,13 @@
         <v>41440</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2926,7 +2938,7 @@
         <v>6</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G65" s="11">
         <v>20150424</v>
@@ -2949,7 +2961,7 @@
         <v>6</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G66" s="11">
         <v>20150424</v>
@@ -2972,7 +2984,7 @@
         <v>6</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G67" s="11">
         <v>20160712</v>
@@ -2995,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G68" s="11">
         <v>20170504</v>
@@ -3018,7 +3030,7 @@
         <v>6</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G69" s="11">
         <v>20150424</v>
@@ -3026,7 +3038,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>115</v>
@@ -3041,7 +3053,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G70" s="11">
         <v>20150424</v>
@@ -3064,7 +3076,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G71" s="11">
         <v>20150826</v>
@@ -3087,7 +3099,7 @@
         <v>6</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G72" s="11">
         <v>20150819</v>
@@ -3110,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G73" s="11">
         <v>20150424</v>
@@ -3133,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G74" s="11">
         <v>20150424</v>
@@ -3156,7 +3168,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G75" s="11">
         <v>20150424</v>
@@ -3179,7 +3191,7 @@
         <v>6</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G76" s="11">
         <v>20150424</v>
@@ -3225,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G78" s="11">
         <v>20161112</v>
@@ -3248,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G79" s="11">
         <v>20161104</v>
@@ -3271,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G80" s="11">
         <v>20170426</v>
@@ -3294,7 +3306,7 @@
         <v>6</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G81" s="11">
         <v>20150424</v>
@@ -3317,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G82" s="11">
         <v>20160712</v>
@@ -3340,7 +3352,7 @@
         <v>6</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G83" s="11">
         <v>20150407</v>
@@ -3348,7 +3360,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>142</v>
@@ -3363,7 +3375,7 @@
         <v>6</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G84" s="11">
         <v>20160712</v>
@@ -3371,7 +3383,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>143</v>
@@ -3386,7 +3398,7 @@
         <v>6</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G85" s="11">
         <v>20150407</v>
@@ -3394,10 +3406,10 @@
     </row>
     <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C86" s="8">
         <v>51</v>
@@ -3406,21 +3418,21 @@
         <v>51</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
-        <v>207</v>
+      <c r="A87" s="25" t="s">
+        <v>253</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C87" s="8">
         <v>4803</v>
@@ -3432,18 +3444,18 @@
         <v>6</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G87" s="11">
         <v>20170520</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A88" s="20" t="s">
-        <v>188</v>
+      <c r="A88" s="34" t="s">
+        <v>252</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C88" s="8">
         <v>732086</v>
@@ -3452,16 +3464,16 @@
         <v>57534</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3481,7 +3493,7 @@
         <v>6</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G89" s="11">
         <v>20150424</v>
@@ -3504,7 +3516,7 @@
         <v>6</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G90" s="11">
         <v>20150424</v>
@@ -3512,10 +3524,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="C91" s="8">
         <v>4</v>
@@ -3527,7 +3539,7 @@
         <v>6</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G91" s="11">
         <v>20150424</v>
@@ -3535,10 +3547,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="C92" s="8">
         <v>100</v>
@@ -3558,10 +3570,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="C93" s="8">
         <v>60</v>
@@ -3581,10 +3593,10 @@
     </row>
     <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C94" s="8">
         <v>813</v>
@@ -3593,24 +3605,24 @@
         <v>810</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="C95" s="8">
         <v>293</v>
@@ -3622,7 +3634,7 @@
         <v>6</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G95" s="11">
         <v>20161129</v>
@@ -3630,10 +3642,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C96" s="8">
         <v>11</v>
@@ -3645,7 +3657,7 @@
         <v>6</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G96" s="15">
         <v>20150424</v>
@@ -3653,10 +3665,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="C97" s="8">
         <v>12</v>
@@ -3668,7 +3680,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G97" s="11">
         <v>20160712</v>
@@ -3676,10 +3688,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="C98" s="8">
         <v>3</v>
@@ -3691,7 +3703,7 @@
         <v>6</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G98" s="11">
         <v>20160712</v>
@@ -3699,10 +3711,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="C99" s="8">
         <v>14</v>
@@ -3714,18 +3726,18 @@
         <v>6</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G99" s="11">
         <v>20160712</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
-        <v>163</v>
+      <c r="A100" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C100" s="8">
         <v>3</v>
@@ -3737,7 +3749,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G100" s="11">
         <v>20170426</v>
@@ -3745,13 +3757,13 @@
     </row>
     <row r="101" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D101" s="29">
         <v>108582</v>
@@ -3760,7 +3772,7 @@
         <v>6</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G101" s="15">
         <v>20180122</v>
@@ -3768,13 +3780,13 @@
     </row>
     <row r="102" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D102" s="24">
         <v>29830</v>
@@ -3783,7 +3795,7 @@
         <v>6</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G102" s="31">
         <v>20160623</v>
@@ -3791,10 +3803,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C103" s="8">
         <v>9</v>
@@ -3806,11 +3818,41 @@
         <v>6</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G103" s="32">
         <v>20180112</v>
       </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" s="8">
+        <v>5</v>
+      </c>
+      <c r="D104" s="8">
+        <v>5</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
     </row>
   </sheetData>
   <sortState ref="A2:G100">

--- a/codevalidator-api/docs/value_set_list_with_code_count_version.xlsx
+++ b/codevalidator-api/docs/value_set_list_with_code_count_version.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ai-vmdc1\RedirectedFolders\amore\Documents\SITE\2017_latest_value_sets_activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sneha Thalluri\Desktop\Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="7248"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated_configured" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated_configured!$A$1:$G$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated_configured!$A$1:$H$100</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="254">
   <si>
     <t>Name</t>
   </si>
@@ -474,9 +474,6 @@
     <t>urn:oid:2.16.840.1.113883.11.20.9.37</t>
   </si>
   <si>
-    <t>Telecom Use (US Realm Header)</t>
-  </si>
-  <si>
     <t>urn:oid:2.16.840.1.113883.11.20.9.20</t>
   </si>
   <si>
@@ -519,16 +516,10 @@
     <t>urn:oid:2.16.840.1.113883.1.11.20.2.6</t>
   </si>
   <si>
-    <t>x_ServiceEventPerformer</t>
-  </si>
-  <si>
     <t>urn:oid:2.16.840.1.113883.1.11.19601</t>
   </si>
   <si>
     <t>ActStatus</t>
-  </si>
-  <si>
-    <t>urn:oid:2.16.840.1.113883.1.11.159331</t>
   </si>
   <si>
     <t>http://www.hl7.org/documentcenter/public_temp_983DB2B0-1C23-BA17-0C785F32D4673871/standards/vocabulary/vocabulary_tables/infrastructure/vocabulary/vs_ActStatus.html</t>
@@ -601,9 +592,6 @@
     <t>http://www.census.gov/geo/reference/ansi_statetables.html</t>
   </si>
   <si>
-    <t>Substance-Reactant for Intolerance</t>
-  </si>
-  <si>
     <t>urn:oid:2.16.840.1.113762.1.4.1010.1</t>
   </si>
   <si>
@@ -662,9 +650,6 @@
 Substance Other Than Clinical Drug (2.16.840.1.113762.1.4.1010.9):(https://vsac.nlm.nih.gov/valuesets) </t>
   </si>
   <si>
-    <t>Substance Other Than Clinical Drug</t>
-  </si>
-  <si>
     <t>urn:oid:2.16.840.1.113762.1.4.1010.9</t>
   </si>
   <si>
@@ -771,13 +756,55 @@
   </si>
   <si>
     <t>This value set was prepared manually using multiple sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New code count </t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.1.11.15933</t>
+  </si>
+  <si>
+    <t>Clinical Substance</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113762.1.4.1010.2</t>
+  </si>
+  <si>
+    <t>MedicationBrandName</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.3.88.12.80.16</t>
+  </si>
+  <si>
+    <t>SupportedFileFormats</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.11.20.7.1</t>
+  </si>
+  <si>
+    <t>DIRDocumentTypeCodes</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.11.20.9.32</t>
+  </si>
+  <si>
+    <t>XServiceEventPerformer</t>
+  </si>
+  <si>
+    <t>TelecomUseUSRealmHeader</t>
+  </si>
+  <si>
+    <t>SubstanceReactantForIntolerance</t>
+  </si>
+  <si>
+    <t>SubstanceOtherThanClinical Drug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,6 +878,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -894,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -959,12 +993,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1340,26 +1415,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="92.7109375" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="37.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="92.6640625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,19 +1446,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1392,19 +1471,22 @@
       <c r="C2" s="8">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="8">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10">
         <v>20160712</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>79</v>
@@ -1412,17 +1494,20 @@
       <c r="C3" s="8">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="13">
         <v>20150424</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1432,40 +1517,46 @@
       <c r="C4" s="8">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="8">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="13">
         <v>20150424</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>241</v>
       </c>
       <c r="C5" s="8">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="D5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="15">
         <v>20130801</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1475,17 +1566,20 @@
       <c r="C6" s="8">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="8">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15">
         <v>20161130</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="11">
         <v>20161130</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1495,17 +1589,20 @@
       <c r="C7" s="8">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="D7" s="8">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="11">
         <v>20161010</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1515,17 +1612,20 @@
       <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1535,42 +1635,48 @@
       <c r="C9" s="8">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="11">
         <v>20150528</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C10" s="8">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="8">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
@@ -1578,17 +1684,20 @@
       <c r="C11" s="8">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="D11" s="8">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1598,17 +1707,20 @@
       <c r="C12" s="8">
         <v>31045</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="D12" s="26">
+        <v>38064</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="11">
         <v>20160623</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -1618,37 +1730,43 @@
       <c r="C13" s="8">
         <v>9</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="D13" s="26">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="11">
         <v>20160903</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C14" s="8">
         <v>24074</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="D14" s="26">
+        <v>24422</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="15">
         <v>20170601</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1658,38 +1776,44 @@
       <c r="C15" s="8">
         <v>51</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="D15" s="26">
+        <v>193</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="11">
         <v>20150424</v>
       </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C16" s="8">
         <v>249</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="8">
+        <v>249</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1699,40 +1823,46 @@
       <c r="C17" s="8">
         <v>8</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="D17" s="8">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C18" s="18">
         <v>3</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="D18" s="18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" s="15">
         <v>20170915</v>
       </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>26</v>
@@ -1740,17 +1870,20 @@
       <c r="C19" s="8">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="D19" s="8">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="11">
         <v>20150819</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -1760,17 +1893,20 @@
       <c r="C20" s="8">
         <v>148</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>218</v>
+      <c r="D20" s="8">
+        <v>172</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -1780,17 +1916,20 @@
       <c r="C21" s="8">
         <v>43</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="11">
-        <v>20160213</v>
+      <c r="D21" s="26">
+        <v>43</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F21" s="11">
         <v>20160213</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="11">
+        <v>20160213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -1800,17 +1939,20 @@
       <c r="C22" s="8">
         <v>16</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="D22" s="26">
+        <v>16</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
@@ -1820,17 +1962,20 @@
       <c r="C23" s="8">
         <v>7</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="D23" s="26">
+        <v>94</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1840,17 +1985,20 @@
       <c r="C24" s="8">
         <v>150</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="D24" s="24">
+        <v>150</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="11">
         <v>20160903</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
@@ -1860,17 +2008,20 @@
       <c r="C25" s="8">
         <v>177</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="15">
-        <v>20151210</v>
+      <c r="D25" s="24">
+        <v>174</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F25" s="15">
         <v>20151210</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="15">
+        <v>20151210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -1880,17 +2031,20 @@
       <c r="C26" s="8">
         <v>13</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="24">
+        <v>13</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="13">
         <v>20150310</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>20150310</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>41</v>
       </c>
@@ -1900,17 +2054,20 @@
       <c r="C27" s="8">
         <v>10</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="D27" s="24">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="11">
         <v>20150310</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
@@ -1920,17 +2077,20 @@
       <c r="C28" s="8">
         <v>2</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="D28" s="24">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="11">
         <v>20121025</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
@@ -1940,17 +2100,20 @@
       <c r="C29" s="8">
         <v>63</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="D29" s="24">
+        <v>83</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
@@ -1960,17 +2123,20 @@
       <c r="C30" s="8">
         <v>4</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="D30" s="8">
+        <v>4</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="11">
         <v>20170106</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
@@ -1980,37 +2146,43 @@
       <c r="C31" s="8">
         <v>2</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="D31" s="8">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="13">
         <v>20160712</v>
       </c>
-      <c r="F31" s="11">
+      <c r="G31" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C32" s="8">
         <v>848</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="D32" s="8">
+        <v>853</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" s="11">
         <v>20170621</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
@@ -2020,17 +2192,20 @@
       <c r="C33" s="8">
         <v>189</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="D33" s="8">
+        <v>222</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
@@ -2040,17 +2215,20 @@
       <c r="C34" s="8">
         <v>10</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="11">
+      <c r="D34" s="8">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" s="11">
         <v>20170304</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>55</v>
       </c>
@@ -2060,19 +2238,22 @@
       <c r="C35" s="8">
         <v>3</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F35" s="11">
+      <c r="D35" s="8">
+        <v>3</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" s="11">
         <v>20150310</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>57</v>
@@ -2080,17 +2261,20 @@
       <c r="C36" s="8">
         <v>28</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="D36" s="8">
+        <v>36</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>58</v>
       </c>
@@ -2100,17 +2284,20 @@
       <c r="C37" s="8">
         <v>13</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="D37" s="8">
+        <v>117</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>60</v>
       </c>
@@ -2120,37 +2307,43 @@
       <c r="C38" s="8">
         <v>6</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F38" s="11">
+      <c r="D38" s="8">
+        <v>6</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="11">
         <v>20150310</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C39" s="8">
         <v>7982</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="8">
+        <v>7982</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>62</v>
       </c>
@@ -2160,17 +2353,20 @@
       <c r="C40" s="8">
         <v>6</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="11">
+      <c r="D40" s="8">
+        <v>6</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="11">
         <v>20150424</v>
       </c>
-      <c r="F40" s="15">
+      <c r="G40" s="15">
         <v>20150424</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>64</v>
       </c>
@@ -2180,17 +2376,20 @@
       <c r="C41" s="8">
         <v>4</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F41" s="11">
+      <c r="D41" s="8">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>66</v>
       </c>
@@ -2200,17 +2399,20 @@
       <c r="C42" s="8">
         <v>5295</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="11">
+      <c r="D42" s="8">
+        <v>5792</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" s="11">
         <v>20160903</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
@@ -2220,40 +2422,46 @@
       <c r="C43" s="8">
         <v>9</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F43" s="11">
+      <c r="D43" s="8">
+        <v>9</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G43" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C44" s="8">
         <v>64742</v>
       </c>
-      <c r="D44" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="F44" s="11">
+      <c r="D44" s="8">
+        <v>88451</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="11">
         <v>20170601</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>70</v>
       </c>
@@ -2263,19 +2471,22 @@
       <c r="C45" s="8">
         <v>2</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F45" s="11">
+      <c r="D45" s="8">
+        <v>2</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>72</v>
@@ -2283,17 +2494,20 @@
       <c r="C46" s="8">
         <v>164</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="11">
+      <c r="D46" s="8">
+        <v>164</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="11">
         <v>20161010</v>
       </c>
-      <c r="F46" s="15">
+      <c r="G46" s="15">
         <v>20161010</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>73</v>
       </c>
@@ -2303,17 +2517,20 @@
       <c r="C47" s="8">
         <v>123</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="11">
+      <c r="D47" s="8">
+        <v>124</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="11">
         <v>20161010</v>
       </c>
-      <c r="F47" s="15">
+      <c r="G47" s="15">
         <v>20161010</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>75</v>
       </c>
@@ -2323,17 +2540,20 @@
       <c r="C48" s="8">
         <v>10</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F48" s="11">
+      <c r="D48" s="8">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="11">
         <v>20161104</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>77</v>
       </c>
@@ -2343,17 +2563,20 @@
       <c r="C49" s="8">
         <v>2</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" s="11">
+      <c r="D49" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G49" s="11">
         <v>20150310</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>80</v>
       </c>
@@ -2363,17 +2586,20 @@
       <c r="C50" s="8">
         <v>8</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" s="11">
+      <c r="D50" s="8">
+        <v>12</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="11">
         <v>20161104</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>82</v>
       </c>
@@ -2383,17 +2609,20 @@
       <c r="C51" s="8">
         <v>16</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="13">
+      <c r="D51" s="8">
+        <v>28</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="13">
         <v>20160715</v>
       </c>
-      <c r="F51" s="11">
+      <c r="G51" s="11">
         <v>20160715</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>84</v>
       </c>
@@ -2403,17 +2632,20 @@
       <c r="C52" s="8">
         <v>48</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="11">
-        <v>20151210</v>
+      <c r="D52" s="8">
+        <v>56</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F52" s="11">
         <v>20151210</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="11">
+        <v>20151210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>86</v>
       </c>
@@ -2423,17 +2655,20 @@
       <c r="C53" s="8">
         <v>48</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="13">
+      <c r="D53" s="8">
+        <v>46</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="13">
         <v>20150417</v>
       </c>
-      <c r="F53" s="11">
+      <c r="G53" s="11">
         <v>20150417</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>88</v>
       </c>
@@ -2443,17 +2678,20 @@
       <c r="C54" s="8">
         <v>990</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="11">
-        <v>20151210</v>
+      <c r="D54" s="8">
+        <v>988</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F54" s="11">
         <v>20151210</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="11">
+        <v>20151210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>90</v>
       </c>
@@ -2463,17 +2701,20 @@
       <c r="C55" s="8">
         <v>2</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F55" s="15">
+      <c r="D55" s="8">
+        <v>2</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G55" s="15">
         <v>20161104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>92</v>
       </c>
@@ -2483,17 +2724,20 @@
       <c r="C56" s="8">
         <v>155</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="F56" s="11">
+      <c r="D56" s="8">
+        <v>162</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" s="11">
         <v>20161108</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>94</v>
       </c>
@@ -2503,17 +2747,20 @@
       <c r="C57" s="8">
         <v>116</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F57" s="11">
+      <c r="D57" s="8">
+        <v>116</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G57" s="11">
         <v>20161112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>96</v>
       </c>
@@ -2523,17 +2770,20 @@
       <c r="C58" s="8">
         <v>53</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F58" s="11">
+      <c r="D58" s="8">
+        <v>53</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G58" s="11">
         <v>20161104</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>98</v>
       </c>
@@ -2543,19 +2793,22 @@
       <c r="C59" s="8">
         <v>6</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F59" s="11">
+      <c r="D59" s="8">
+        <v>6</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G59" s="11">
         <v>20161104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>100</v>
@@ -2563,19 +2816,22 @@
       <c r="C60" s="8">
         <v>5</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="13">
+      <c r="D60" s="8">
+        <v>6</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="13">
         <v>20150417</v>
       </c>
-      <c r="F60" s="11">
+      <c r="G60" s="11">
         <v>20150417</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>101</v>
@@ -2583,19 +2839,22 @@
       <c r="C61" s="8">
         <v>5</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="F61" s="11">
+      <c r="D61" s="8">
+        <v>5</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G61" s="11">
         <v>20150417</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>102</v>
@@ -2603,17 +2862,20 @@
       <c r="C62" s="8">
         <v>4</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="F62" s="11">
+      <c r="D62" s="8">
+        <v>4</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G62" s="11">
         <v>20150417</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>103</v>
       </c>
@@ -2623,37 +2885,43 @@
       <c r="C63" s="8">
         <v>10</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="F63" s="11">
+      <c r="D63" s="8">
+        <v>11</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="11">
         <v>20150417</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C64" s="8">
         <v>41440</v>
       </c>
-      <c r="D64" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="8">
+        <v>41440</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>105</v>
       </c>
@@ -2663,17 +2931,20 @@
       <c r="C65" s="8">
         <v>19</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F65" s="11">
+      <c r="D65" s="8">
+        <v>20</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>107</v>
       </c>
@@ -2683,17 +2954,20 @@
       <c r="C66" s="8">
         <v>5</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F66" s="11">
+      <c r="D66" s="8">
+        <v>6</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G66" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>109</v>
       </c>
@@ -2703,17 +2977,20 @@
       <c r="C67" s="8">
         <v>3</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F67" s="11">
+      <c r="D67" s="8">
+        <v>3</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G67" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>111</v>
       </c>
@@ -2723,17 +3000,20 @@
       <c r="C68" s="8">
         <v>115898</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F68" s="11">
+      <c r="D68" s="24">
+        <v>120271</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G68" s="11">
         <v>20170504</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>113</v>
       </c>
@@ -2743,19 +3023,22 @@
       <c r="C69" s="8">
         <v>6</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F69" s="11">
+      <c r="D69" s="8">
+        <v>3</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G69" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>115</v>
@@ -2763,17 +3046,20 @@
       <c r="C70" s="8">
         <v>3</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F70" s="11">
+      <c r="D70" s="8">
+        <v>3</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G70" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>116</v>
       </c>
@@ -2783,17 +3069,20 @@
       <c r="C71" s="8">
         <v>15</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="F71" s="11">
+      <c r="D71" s="8">
+        <v>8</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G71" s="11">
         <v>20150826</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>118</v>
       </c>
@@ -2803,17 +3092,20 @@
       <c r="C72" s="8">
         <v>4</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F72" s="11">
+      <c r="D72" s="8">
+        <v>4</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" s="11">
         <v>20150819</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>120</v>
       </c>
@@ -2823,17 +3115,20 @@
       <c r="C73" s="8">
         <v>4</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F73" s="11">
+      <c r="D73" s="8">
+        <v>4</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G73" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>122</v>
       </c>
@@ -2843,17 +3138,20 @@
       <c r="C74" s="8">
         <v>17</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F74" s="11">
+      <c r="D74" s="8">
+        <v>114</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G74" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>124</v>
       </c>
@@ -2863,17 +3161,20 @@
       <c r="C75" s="8">
         <v>25</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" s="11">
+      <c r="D75" s="8">
+        <v>106</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G75" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>126</v>
       </c>
@@ -2883,17 +3184,20 @@
       <c r="C76" s="8">
         <v>921</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F76" s="11">
+      <c r="D76" s="8">
+        <v>921</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G76" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>128</v>
       </c>
@@ -2903,17 +3207,20 @@
       <c r="C77" s="8">
         <v>5</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="13">
+      <c r="D77" s="8">
+        <v>5</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="13">
         <v>20151123</v>
       </c>
-      <c r="F77" s="11">
+      <c r="G77" s="11">
         <v>20160213</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>130</v>
       </c>
@@ -2923,17 +3230,20 @@
       <c r="C78" s="8">
         <v>932</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="F78" s="11">
+      <c r="D78" s="8">
+        <v>987</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G78" s="11">
         <v>20161112</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>132</v>
       </c>
@@ -2943,17 +3253,20 @@
       <c r="C79" s="8">
         <v>67</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F79" s="11">
+      <c r="D79" s="8">
+        <v>81</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G79" s="11">
         <v>20161104</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>134</v>
       </c>
@@ -2963,17 +3276,20 @@
       <c r="C80" s="8">
         <v>2</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="F80" s="11">
+      <c r="D80" s="8">
+        <v>2</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G80" s="11">
         <v>20170426</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>136</v>
       </c>
@@ -2983,17 +3299,20 @@
       <c r="C81" s="8">
         <v>82</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F81" s="11">
+      <c r="D81" s="8">
+        <v>82</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G81" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>138</v>
       </c>
@@ -3003,17 +3322,20 @@
       <c r="C82" s="8">
         <v>191</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F82" s="11">
+      <c r="D82" s="8">
+        <v>196</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G82" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>140</v>
       </c>
@@ -3023,19 +3345,22 @@
       <c r="C83" s="8">
         <v>6</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F83" s="11">
+      <c r="D83" s="8">
+        <v>6</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G83" s="11">
         <v>20150407</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>142</v>
@@ -3043,19 +3368,22 @@
       <c r="C84" s="8">
         <v>8</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F84" s="11">
+      <c r="D84" s="8">
+        <v>32</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G84" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>143</v>
@@ -3063,80 +3391,92 @@
       <c r="C85" s="8">
         <v>9</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F85" s="11">
+      <c r="D85" s="8">
+        <v>15</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G85" s="11">
         <v>20150407</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C86" s="8">
         <v>51</v>
       </c>
-      <c r="D86" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>208</v>
+      <c r="D86" s="8">
+        <v>51</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="25" t="s">
+        <v>253</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="8">
         <v>4803</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F87" s="11">
+      <c r="D87" s="24">
+        <v>20131</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="G87" s="11">
         <v>20170520</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="285" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>189</v>
+    <row r="88" spans="1:8" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A88" s="34" t="s">
+        <v>252</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C88" s="8">
         <v>732086</v>
       </c>
-      <c r="D88" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G88" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D88" s="24">
+        <v>57534</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>144</v>
       </c>
@@ -3146,17 +3486,20 @@
       <c r="C89" s="8">
         <v>10</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F89" s="11">
+      <c r="D89" s="8">
+        <v>37</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G89" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>146</v>
       </c>
@@ -3166,264 +3509,399 @@
       <c r="C90" s="8">
         <v>5</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F90" s="11">
+      <c r="D90" s="8">
+        <v>5</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G90" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="C91" s="8">
         <v>4</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F91" s="11">
+      <c r="D91" s="8">
+        <v>7</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G91" s="11">
         <v>20150424</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="C92" s="8">
         <v>100</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="11">
-        <v>20151210</v>
+      <c r="D92" s="8">
+        <v>63</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F92" s="11">
         <v>20151210</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="11">
+        <v>20151210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="C93" s="8">
         <v>60</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="15">
-        <v>20161104</v>
+      <c r="D93" s="8">
+        <v>69</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="F93" s="15">
         <v>20161104</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G93" s="15">
+        <v>20161104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C94" s="8">
         <v>813</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F94" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D94" s="8">
+        <v>810</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="C95" s="8">
         <v>293</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="F95" s="11">
+      <c r="D95" s="8">
+        <v>286</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G95" s="11">
         <v>20161129</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C96" s="8">
         <v>11</v>
       </c>
-      <c r="D96" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F96" s="15">
+      <c r="D96" s="8">
+        <v>12</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G96" s="15">
         <v>20150424</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="C97" s="8">
         <v>12</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F97" s="11">
+      <c r="D97" s="8">
+        <v>50</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G97" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="C98" s="8">
         <v>3</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F98" s="11">
+      <c r="D98" s="8">
+        <v>5</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G98" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="C99" s="8">
         <v>14</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F99" s="11">
+      <c r="D99" s="8">
+        <v>33</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G99" s="11">
         <v>20160712</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>163</v>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C100" s="8">
         <v>3</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="F100" s="11">
+      <c r="D100" s="8">
+        <v>3</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G100" s="11">
         <v>20170426</v>
       </c>
+    </row>
+    <row r="101" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" s="29">
+        <v>108582</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G101" s="15">
+        <v>20180122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="24">
+        <v>29830</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G102" s="31">
+        <v>20160623</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>246</v>
+      </c>
+      <c r="B103" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" s="8">
+        <v>9</v>
+      </c>
+      <c r="D103" s="8">
+        <v>9</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G103" s="32">
+        <v>20180112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" s="8">
+        <v>5</v>
+      </c>
+      <c r="D104" s="8">
+        <v>5</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
     </row>
   </sheetData>
   <sortState ref="A2:G100">
     <sortCondition ref="A2:A100"/>
   </sortState>
-  <conditionalFormatting sqref="A101:A1048576 A1:A2 A4:A13 A74:A84 A16:A40 A63:A69 A71:A72 A86 A88:A89 A42:A60">
+  <conditionalFormatting sqref="A101:A102 A1:A2 A4:A13 A74:A84 A16:A40 A63:A69 A71:A72 A86 A88:A89 A42:A60 A104:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="A90">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
+  <conditionalFormatting sqref="A41">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
+  <conditionalFormatting sqref="A91">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
+  <conditionalFormatting sqref="A92">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="A93">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
+  <conditionalFormatting sqref="A94">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
+  <conditionalFormatting sqref="A95:A100">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A100">
+  <conditionalFormatting sqref="A15">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
+  <conditionalFormatting sqref="B103">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D64" r:id="rId6" display="https://vsac.nlm.nih.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D86" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D94" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D2" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D84" r:id="rId10" xr:uid="{40F209A7-96C7-44AD-A635-52AE9551ABFF}"/>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="E16" r:id="rId3"/>
+    <hyperlink ref="E32" r:id="rId4"/>
+    <hyperlink ref="E39" r:id="rId5"/>
+    <hyperlink ref="E64" r:id="rId6" display="https://vsac.nlm.nih.gov"/>
+    <hyperlink ref="E86" r:id="rId7"/>
+    <hyperlink ref="E94" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId9"/>
+    <hyperlink ref="E84" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
